--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/7VikwinDataBrokenIMGList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/7VikwinDataBrokenIMGList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>10  Game Provider Name = PlaysonDirect   Game Name =  3 Fruits Win  cod = 403   src = https://resources.vikwin.com/products/</t>
   </si>
@@ -29,691 +29,613 @@
     <t>22  Game Provider Name = Aristocrat   Game Name =  50 Lions  cod = 403   src = https://resources.vikwin.com/products/</t>
   </si>
   <si>
-    <t>49  Game Provider Name = NetEnt   Game Name =  American Roulette  cod = 404   src = https://resources.vikwin.com/products/outcomebet/american_roulette.jpg</t>
-  </si>
-  <si>
-    <t>50  Game Provider Name = NetEnt   Game Name =  American Roulette  cod = 404   src = https://resources.vikwin.com/products/outcomebet/american_roulette_html.jpg</t>
-  </si>
-  <si>
-    <t>71  Game Provider Name = Greentube   Game Name =  Bars and Sevens  cod = 404   src = https://resources.vikwin.com/products/outcomebet/barsandsevens_gt_html.jpg</t>
-  </si>
-  <si>
-    <t>96  Game Provider Name = Aristocrat   Game Name =  Big Red  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>100  Game Provider Name = Wazdan   Game Name =  Black Hawk Deluxe  cod = 404   src = https://resources.vikwin.com/products/wazdan\web\bhd_wzdn.jpg</t>
-  </si>
-  <si>
-    <t>102  Game Provider Name = NetEnt   Game Name =  Black Jack 3 hands  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blackjack_html.jpg</t>
-  </si>
-  <si>
-    <t>103  Game Provider Name = NetEnt   Game Name =  Blackjack Classic touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blackjack_classic_touch.jpg</t>
-  </si>
-  <si>
-    <t>104  Game Provider Name = NetEnt   Game Name =  Blackjack Single Deck t.  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blackjack_single_deck_touch.jpg</t>
-  </si>
-  <si>
-    <t>105  Game Provider Name = NetEnt   Game Name =  Blackjack touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blackjack_touch.jpg</t>
-  </si>
-  <si>
-    <t>108  Game Provider Name = NetEnt   Game Name =  Blood Suckers  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blood_suckers_touch.jpg</t>
-  </si>
-  <si>
-    <t>109  Game Provider Name = NetEnt   Game Name =  Blood Suckers  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blood_suckers.jpg</t>
-  </si>
-  <si>
-    <t>110  Game Provider Name = NetEnt   Game Name =  Blood Suckers 2  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blood_suckers_2.jpg</t>
-  </si>
-  <si>
-    <t>117  Game Provider Name = PlaynGo   Game Name =  Book of Dead  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>119  Game Provider Name = PlaysonDirect   Game Name =  Book of Gold: Classic  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>120  Game Provider Name = PlaysonDirect   Game Name =  Book of Gold: Double Chance  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>121  Game Provider Name = PlaysonDirect   Game Name =  Book of Gold: Symbol Choice  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>124  Game Provider Name = Greentube   Game Name =  Book of Maya  cod = 404   src = https://resources.vikwin.com/products/outcomebet/bookofmaya_gt_html.jpg</t>
-  </si>
-  <si>
-    <t>128  Game Provider Name = Greentube   Game Name =  Book of Ra Classic  cod = 404   src = https://resources.vikwin.com/products/outcomebet/bookofraclassic_gt_html.jpg</t>
-  </si>
-  <si>
-    <t>133  Game Provider Name = NetEnt   Game Name =  Boom Brothers  cod = 404   src = https://resources.vikwin.com/products/outcomebet/boom_brothers.jpg</t>
-  </si>
-  <si>
-    <t>134  Game Provider Name = Microgaming   Game Name =  Booty Time  cod = 404   src = https://resources.vikwin.com/products/outcomebet/bootytime_mg_flash.jpg</t>
-  </si>
-  <si>
-    <t>138  Game Provider Name = Microgaming   Game Name =  Breakaway  cod = 404   src = https://resources.vikwin.com/products/outcomebet/breakaway_mg_flash.jpg</t>
-  </si>
-  <si>
-    <t>140  Game Provider Name = Aristocrat   Game Name =  Buffalo  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>142  Game Provider Name = Greentube   Game Name =  Bugs'n'Bees  cod = 404   src = https://resources.vikwin.com/products/outcomebet/bugsnbees_gt_html.jpg</t>
-  </si>
-  <si>
-    <t>143  Game Provider Name = Greentube   Game Name =  Bullion Bars  cod = 404   src = https://resources.vikwin.com/products/outcomebet/bullionbars_gt_html.jpg</t>
-  </si>
-  <si>
-    <t>151  Game Provider Name = PlaysonDirect   Game Name =  Burning Wins  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>157  Game Provider Name = Greentube   Game Name =  Caribbean Holidays  cod = 404   src = https://resources.vikwin.com/products/outcomebet/caribbeanholidays_gt_html.jpg</t>
-  </si>
-  <si>
-    <t>159  Game Provider Name = WMG   Game Name =  Cash Bunny  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>166  Game Provider Name = NetEnt   Game Name =  Champion of the track  cod = 404   src = https://resources.vikwin.com/products/outcomebet/champion.jpg</t>
-  </si>
-  <si>
-    <t>170  Game Provider Name = Konami   Game Name =  China Mystery  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>174  Game Provider Name = PlaysonDirect   Game Name =  Clover Riches  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>178  Game Provider Name = QuickSpin   Game Name =  Colossus  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/qso_colossus.jpg</t>
-  </si>
-  <si>
-    <t>182  Game Provider Name = Microgaming   Game Name =  Cool Wolf  cod = 404   src = https://resources.vikwin.com/products/microgaming/web/coolwolf_mg_flash_html.jpg</t>
-  </si>
-  <si>
-    <t>183  Game Provider Name = Microgaming   Game Name =  Cool Wolf  cod = 404   src = https://resources.vikwin.com/products/outcomebet/coolwolf_mg_flash.jpg</t>
-  </si>
-  <si>
-    <t>185  Game Provider Name = EGT   Game Name =  Coral Island  cod = 404   src = https://resources.vikwin.com/products/egt/web/CoralIsland.png</t>
-  </si>
-  <si>
-    <t>190  Game Provider Name = NetEnt   Game Name =  Creature From The Black Lagoon  cod = 404   src = https://resources.vikwin.com/products/outcomebet/creature_from_the_black_lagoon.jpg</t>
-  </si>
-  <si>
-    <t>191  Game Provider Name = NetEnt   Game Name =  Crime Scene  cod = 404   src = https://resources.vikwin.com/products/outcomebet/crime_scene.jpg</t>
-  </si>
-  <si>
-    <t>193  Game Provider Name = NetEnt   Game Name =  Crusade of Fortune  cod = 404   src = https://resources.vikwin.com/products/outcomebet/crusade_of_fortune.jpg</t>
-  </si>
-  <si>
-    <t>196  Game Provider Name = NetEnt   Game Name =  Dazzle Me  cod = 404   src = https://resources.vikwin.com/products/outcomebet/dazzle_me.jpg</t>
-  </si>
-  <si>
-    <t>198  Game Provider Name = NetEnt   Game Name =  Dead or Alive  cod = 404   src = https://resources.vikwin.com/products/outcomebet/dead_or_alive_html.jpg</t>
-  </si>
-  <si>
-    <t>199  Game Provider Name = NetEnt   Game Name =  Dead or Alive  cod = 404   src = https://resources.vikwin.com/products/outcomebet/dead_or_alive.jpg</t>
-  </si>
-  <si>
-    <t>205  Game Provider Name = Konami   Game Name =  Destiny of Athena  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>206  Game Provider Name = NetEnt   Game Name =  Deuces Wild  cod = 404   src = https://resources.vikwin.com/products/outcomebet/deuces_wild_poker.jpg</t>
-  </si>
-  <si>
-    <t>207  Game Provider Name = NetEnt   Game Name =  Deuces Wild  cod = 404   src = https://resources.vikwin.com/products/outcomebet/deuces_wild_poker_25_hands.jpg</t>
-  </si>
-  <si>
-    <t>209  Game Provider Name = NetEnt   Game Name =  Devil`s Delight  cod = 404   src = https://resources.vikwin.com/products/outcomebet/devils_delight.jpg</t>
-  </si>
-  <si>
-    <t>211  Game Provider Name = NetEnt   Game Name =  Diamond Dogs  cod = 404   src = https://resources.vikwin.com/products/outcomebet/diamond_dogs.jpg</t>
-  </si>
-  <si>
-    <t>216  Game Provider Name = EGT   Game Name =  Dice &amp; Roll  cod = 404   src = https://resources.vikwin.com/products/egt/web/DiceandRoll.png</t>
-  </si>
-  <si>
-    <t>218  Game Provider Name = EGT   Game Name =  Dice Of Ra  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>221  Game Provider Name = QuickSpin   Game Name =  Divine Dreams  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/DivineDreams.png</t>
-  </si>
-  <si>
-    <t>224  Game Provider Name = Aristocrat   Game Name =  Dolphin Treasure  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>228  Game Provider Name = Aristocrat   Game Name =  Double Happiness  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>231  Game Provider Name = NetEnt   Game Name =  Dracula  cod = 404   src = https://resources.vikwin.com/products/outcomebet/dracula.jpg</t>
-  </si>
-  <si>
-    <t>232  Game Provider Name = NetEnt   Game Name =  Dracula touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/dracula_touch.jpg</t>
-  </si>
-  <si>
-    <t>243  Game Provider Name = Microgaming   Game Name =  Dragonz  cod = 404   src = https://resources.vikwin.com/products/microgaming/web/mobbet/dragonz_mg_html.jpg</t>
-  </si>
-  <si>
-    <t>244  Game Provider Name = Microgaming   Game Name =  Dragonz  cod = 404   src = https://resources.vikwin.com/products/outcomebet/dragonz_mg_flash.jpg</t>
-  </si>
-  <si>
-    <t>246  Game Provider Name = NetEnt   Game Name =  Drive Multiplier Mayhem  cod = 404   src = https://resources.vikwin.com/products/outcomebet/drive_multiplier_mayhem.jpg</t>
-  </si>
-  <si>
-    <t>252  Game Provider Name = PlaynGo   Game Name =  Easter Eggs  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>257  Game Provider Name = NetEnt   Game Name =  Elements  cod = 404   src = https://resources.vikwin.com/products/outcomebet/elements_html.jpg</t>
-  </si>
-  <si>
-    <t>264  Game Provider Name = NetEnt   Game Name =  Excalibur  cod = 404   src = https://resources.vikwin.com/products/outcomebet/excalibur.jpg</t>
-  </si>
-  <si>
-    <t>270  Game Provider Name = Greentube   Game Name =  Fairy Queen  cod = 404   src = https://resources.vikwin.com/products/outcomebet/fairyqueen_gt_html.jpg</t>
-  </si>
-  <si>
-    <t>277  Game Provider Name = PlaynGo   Game Name =  Fire Joker  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>278  Game Provider Name = Aristocrat   Game Name =  Fire Light  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>283  Game Provider Name = NetEnt   Game Name =  Fisticuffs  cod = 404   src = https://resources.vikwin.com/products/outcomebet/fisticuffs.jpg</t>
-  </si>
-  <si>
-    <t>285  Game Provider Name = Aristocrat   Game Name =  Flame Of Olympus  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>287  Game Provider Name = EGT   Game Name =  Flaming Dice  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>291  Game Provider Name = NetEnt   Game Name =  Flowers  cod = 404   src = https://resources.vikwin.com/products/outcomebet/flowers.jpg</t>
-  </si>
-  <si>
-    <t>292  Game Provider Name = NetEnt   Game Name =  Flowers Christmas Edition  cod = 404   src = https://resources.vikwin.com/products/outcomebet/flowers_christmas.jpg</t>
-  </si>
-  <si>
-    <t>293  Game Provider Name = NetEnt   Game Name =  Flowers touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/flowers_touch.jpg</t>
-  </si>
-  <si>
-    <t>294  Game Provider Name = NetEnt   Game Name =  Football: Champions Cup  cod = 404   src = https://resources.vikwin.com/products/outcomebet/football.jpg</t>
-  </si>
-  <si>
-    <t>301  Game Provider Name = Konami   Game Name =  Fortune Stacks  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>302  Game Provider Name = NetEnt   Game Name =  FortuneTeller  cod = 404   src = https://resources.vikwin.com/products/outcomebet/fortuneteller.jpg</t>
-  </si>
-  <si>
-    <t>304  Game Provider Name = NetEnt   Game Name =  Frankenstein touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/frankenstein_touch.jpg</t>
-  </si>
-  <si>
-    <t>305  Game Provider Name = NetEnt   Game Name =  French Roulette  cod = 404   src = https://resources.vikwin.com/products/outcomebet/french_roulette.jpg</t>
-  </si>
-  <si>
-    <t>306  Game Provider Name = NetEnt   Game Name =  French Roulette  cod = 404   src = https://resources.vikwin.com/products/outcomebet/french_roulette_html.jpg</t>
-  </si>
-  <si>
-    <t>313  Game Provider Name = NetEnt   Game Name =  Fruit Shop  cod = 404   src = https://resources.vikwin.com/products/outcomebet/fruitshop_touch.jpg</t>
-  </si>
-  <si>
-    <t>315  Game Provider Name = PlaysonDirect   Game Name =  Fruit Supreme  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>316  Game Provider Name = PlaysonDirect   Game Name =  Fruit Xtreme  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>317  Game Provider Name = PlaysonDirect   Game Name =  Fruits &amp; Clovers: 20 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>318  Game Provider Name = PlaysonDirect   Game Name =  Fruits &amp; Jokers: 100 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>319  Game Provider Name = PlaysonDirect   Game Name =  Fruits &amp; Jokers: 20 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>320  Game Provider Name = PlaysonDirect   Game Name =  Fruits &amp; Jokers: 40 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>322  Game Provider Name = PlaysonDirect   Game Name =  Fruits 'n' Stars  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>323  Game Provider Name = PlaysonDirect   Game Name =  Fruits 'n' Stars Holiday Edition  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>324  Game Provider Name = PlaysonDirect   Game Name =  Fruits of the Nile  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>325  Game Provider Name = NetEnt   Game Name =  Fruitshop Christmas Edition  cod = 404   src = https://resources.vikwin.com/products/outcomebet/fruitshop_christmas.jpg</t>
-  </si>
-  <si>
-    <t>327  Game Provider Name = Greentube   Game Name =  Frutilicious  cod = 404   src = https://resources.vikwin.com/products/outcomebet/fruitilicious_gt_html.jpg</t>
-  </si>
-  <si>
-    <t>338  Game Provider Name = Aristocrat   Game Name =  Geisha  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>341  Game Provider Name = NetEnt   Game Name =  Ghost Pirates  cod = 404   src = https://resources.vikwin.com/products/outcomebet/ghost_pirates.jpg</t>
-  </si>
-  <si>
-    <t>350  Game Provider Name = PlaysonDirect   Game Name =  God of Wild Sea  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>362  Game Provider Name = Konami   Game Name =  Golden Wolves  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>363  Game Provider Name = QuickSpin   Game Name =  Goldilocks &amp; Wild Bears  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/qso_goldilocks2.jpg</t>
-  </si>
-  <si>
-    <t>364  Game Provider Name = NetEnt   Game Name =  Gonzos Quest  cod = 404   src = https://resources.vikwin.com/products/outcomebet/gonzos_quest_touch.jpg</t>
-  </si>
-  <si>
-    <t>374  Game Provider Name = Greentube   Game Name =  Gryphon`s Gold Deluxe  cod = 404   src = https://resources.vikwin.com/products/outcomebet/gryphonsgolddeluxe_gt_html.jpg</t>
-  </si>
-  <si>
-    <t>376  Game Provider Name = NetEnt   Game Name =  Guns 'N' Roses  cod = 404   src = https://resources.vikwin.com/products/outcomebet/guns_and_roses.jpg</t>
-  </si>
-  <si>
-    <t>377  Game Provider Name = Konami   Game Name =  Gypsy Fire  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>380  Game Provider Name = PlaynGo   Game Name =  Happy Halloween  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>383  Game Provider Name = WMG   Game Name =  Haunted House  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>384  Game Provider Name = WMG   Game Name =  Haunted House Rest In Paradise  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>385  Game Provider Name = Konami   Game Name =  Heart Of Romance  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>395  Game Provider Name = NetEnt   Game Name =  Hook's Heroes  cod = 404   src = https://resources.vikwin.com/products/outcomebet/hooks_heroes.jpg</t>
-  </si>
-  <si>
-    <t>402  Game Provider Name = NetEnt   Game Name =  Hot City  cod = 404   src = https://resources.vikwin.com/products/outcomebet/hot_city.jpg</t>
-  </si>
-  <si>
-    <t>421  Game Provider Name = Kajot   Game Name =  Ice Bar 27  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>422  Game Provider Name = QuickSpin   Game Name =  Illuminous  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/qso_illuminous.jpg</t>
-  </si>
-  <si>
-    <t>425  Game Provider Name = PlaysonDirect   Game Name =  Imperial Fruits: 100 Lines  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>426  Game Provider Name = PlaysonDirect   Game Name =  Imperial Fruits: 40 Lines  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>427  Game Provider Name = PlaysonDirect   Game Name =  Imperial Fruits: 5 Lines  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>428  Game Provider Name = Konami   Game Name =  Imperial Wealth  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>433  Game Provider Name = PlaynGo   Game Name =  Inferno Star  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>434  Game Provider Name = RelaxGaming   Game Name =  Iron Bank  cod = 404   src = https://resources.vikwin.com/products/outcomebet/ironbank_rg.jpg</t>
-  </si>
-  <si>
-    <t>440  Game Provider Name = NetEnt   Game Name =  Jack &amp; Beanstalk  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jack_and_the_beanstalk_touch.jpg</t>
-  </si>
-  <si>
-    <t>442  Game Provider Name = NetEnt   Game Name =  Jack Hammer  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jack_hammer_touch.jpg</t>
-  </si>
-  <si>
-    <t>443  Game Provider Name = NetEnt   Game Name =  Jack Hammer  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jack_hammer.jpg</t>
-  </si>
-  <si>
-    <t>444  Game Provider Name = NetEnt   Game Name =  Jack Hammer 2  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jack_hammer_2_touch.jpg</t>
-  </si>
-  <si>
-    <t>445  Game Provider Name = NetEnt   Game Name =  Jack Hammer 2  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jack_hammer_2.jpg</t>
-  </si>
-  <si>
-    <t>448  Game Provider Name = NetEnt   Game Name =  Jacks or Better  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jacks_or_better.jpg</t>
-  </si>
-  <si>
-    <t>449  Game Provider Name = NetEnt   Game Name =  Jacks or Better  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jacks_or_better_5_hands.jpg</t>
-  </si>
-  <si>
-    <t>450  Game Provider Name = Aristocrat   Game Name =  Jaguar Mist  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>455  Game Provider Name = NetEnt   Game Name =  Jimi Hendrix  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jimi_hendrix.jpg</t>
-  </si>
-  <si>
-    <t>460  Game Provider Name = PlaysonDirect   Game Name =  Juice and Fruits  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>466  Game Provider Name = NetEnt   Game Name =  Jungle Spirit  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jungle_spirit.jpg</t>
-  </si>
-  <si>
-    <t>475  Game Provider Name = Greentube   Game Name =  Keno plus 2Balls  cod = 404   src = https://resources.vikwin.com/products/outcomebet/kenoplustwoball_gt_html.jpg</t>
-  </si>
-  <si>
-    <t>476  Game Provider Name = EGT   Game Name =  Keno Universe  cod = 404   src = https://resources.vikwin.com/products/outcomebet/keno_universe_html.jpg</t>
-  </si>
-  <si>
-    <t>485  Game Provider Name = NetEnt   Game Name =  Koi Princess  cod = 404   src = https://resources.vikwin.com/products/outcomebet/koi_princess.jpg</t>
-  </si>
-  <si>
-    <t>487  Game Provider Name = Microgaming   Game Name =  Lady in Red  cod = 404   src = https://resources.vikwin.com/products/microgaming/web/mobebet/ladyinred_mg_flash.jpg</t>
-  </si>
-  <si>
-    <t>490  Game Provider Name = PlaynGo   Game Name =  Legacy of Dead  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>491  Game Provider Name = PlaysonDirect   Game Name =  Legend Of Cleopatra  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>497  Game Provider Name = NetEnt   Game Name =  Lights  cod = 404   src = https://resources.vikwin.com/products/outcomebet/lights_touch.jpg</t>
-  </si>
-  <si>
-    <t>505  Game Provider Name = Konami   Game Name =  Lotus Land  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>506  Game Provider Name = Konami   Game Name =  Lotus Land  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>511  Game Provider Name = NetEnt   Game Name =  Lucky Angler  cod = 404   src = https://resources.vikwin.com/products/outcomebet/lucky_angler_touch.jpg</t>
-  </si>
-  <si>
-    <t>531  Game Provider Name = PlaysonDirect   Game Name =  Lucky Staxx: 40 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>550  Game Provider Name = NetEnt   Game Name =  Magic Portals  cod = 404   src = https://resources.vikwin.com/products/outcomebet/magic_portals_touch.jpg</t>
-  </si>
-  <si>
-    <t>553  Game Provider Name = Amatic   Game Name =  Magic Scatter  cod = 404   src = https://resources.vikwin.com/products/amatic\web\MagicScatter.jpg</t>
-  </si>
-  <si>
-    <t>561  Game Provider Name = NetEnt   Game Name =  Master of Mystery  cod = 404   src = https://resources.vikwin.com/products/outcomebet/master_of_mystery.jpg</t>
-  </si>
-  <si>
-    <t>566  Game Provider Name = PlaysonDirect   Game Name =  Mega Burning Wins: 27 ways  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>578  Game Provider Name = RelaxGaming   Game Name =  Money Train 2  cod = 404   src = https://resources.vikwin.com/products/outcomebet/moneytrain2_rg.jpg</t>
-  </si>
-  <si>
-    <t>582  Game Provider Name = Aristocrat   Game Name =  Moon Festival  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>583  Game Provider Name = EGT   Game Name =  More Dice &amp; Roll  cod = 404   src = https://resources.vikwin.com/products/egt/web/MoreDiceandRoll.png</t>
-  </si>
-  <si>
-    <t>588  Game Provider Name = QuickSpin   Game Name =  Mountain King  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/MountainKing.png</t>
-  </si>
-  <si>
-    <t>589  Game Provider Name = Kajot   Game Name =  Multi Vegas 81  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>592  Game Provider Name = NetEnt   Game Name =  Mystery at the Mansion  cod = 404   src = https://resources.vikwin.com/products/outcomebet/mystery_at_the_mansion.jpg</t>
-  </si>
-  <si>
-    <t>596  Game Provider Name = NetEnt   Game Name =  Mythic Maiden  cod = 404   src = https://resources.vikwin.com/products/outcomebet/mythic_maiden_touch.jpg</t>
-  </si>
-  <si>
-    <t>597  Game Provider Name = NetEnt   Game Name =  Mythic Maiden  cod = 404   src = https://resources.vikwin.com/products/outcomebet/mythic_maiden.jpg</t>
-  </si>
-  <si>
-    <t>598  Game Provider Name = EGT   Game Name =  Neon Dice  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>599  Game Provider Name = Kajot   Game Name =  Neon Fruits  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>600  Game Provider Name = NetEnt   Game Name =  Neon Staxx  cod = 404   src = https://resources.vikwin.com/products/outcomebet/neon_staxx.jpg</t>
-  </si>
-  <si>
-    <t>602  Game Provider Name = Kajot   Game Name =  Nine Stars  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>607  Game Provider Name = NetEnt   Game Name =  Nrvna touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/nrvna_touch.jpg</t>
-  </si>
-  <si>
-    <t>615  Game Provider Name = Microgaming   Game Name =  One of Egypt  cod = 404   src = https://resources.vikwin.com/products/outcomebet/throneofegypt_mg_flash.jpg</t>
-  </si>
-  <si>
-    <t>618  Game Provider Name = NetEnt   Game Name =  Pacific Attack!  cod = 404   src = https://resources.vikwin.com/products/outcomebet/pacific_attack.jpg</t>
-  </si>
-  <si>
-    <t>620  Game Provider Name = NetEnt   Game Name =  Pandora's Box  cod = 404   src = https://resources.vikwin.com/products/outcomebet/pandoras_box.jpg</t>
-  </si>
-  <si>
-    <t>623  Game Provider Name = Booongo   Game Name =  Patrick's Pub  cod = 404   src = https://resources.vikwin.com/products/outcomebet/web/PatricksPub.png</t>
-  </si>
-  <si>
-    <t>624  Game Provider Name = Aristocrat   Game Name =  Pelican Pete  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>630  Game Provider Name = PlaysonDirect   Game Name =  Phoenix Fire  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>633  Game Provider Name = NetEnt   Game Name =  Piggy Riches  cod = 404   src = https://resources.vikwin.com/products/outcomebet/piggy_riches_touch.jpg</t>
-  </si>
-  <si>
-    <t>634  Game Provider Name = NetEnt   Game Name =  Piggy Riches  cod = 404   src = https://resources.vikwin.com/products/outcomebet/piggy_riches.jpg</t>
-  </si>
-  <si>
-    <t>642  Game Provider Name = Kajot   Game Name =  Poly Diamonds  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>645  Game Provider Name = Kajot   Game Name =  Puppet Show  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>646  Game Provider Name = NetEnt   Game Name =  Pyramid  cod = 404   src = https://resources.vikwin.com/products/outcomebet/pyramid_new.jpg</t>
-  </si>
-  <si>
-    <t>659  Game Provider Name = PlaysonDirect   Game Name =  Red Chilli Wins  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>666  Game Provider Name = NetEnt   Game Name =  Reel Rush  cod = 404   src = https://resources.vikwin.com/products/outcomebet/reel_rush_html.jpg</t>
-  </si>
-  <si>
-    <t>668  Game Provider Name = NetEnt   Game Name =  Reel Steal  cod = 404   src = https://resources.vikwin.com/products/outcomebet/reel_steal.jpg</t>
-  </si>
-  <si>
-    <t>674  Game Provider Name = PlaynGo   Game Name =  Riches of RA  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>675  Game Provider Name = Kajot   Game Name =  Ring Of Fire Xl  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>676  Game Provider Name = PlaysonDirect   Game Name =  Rise Of Egypt  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>677  Game Provider Name = PlaynGo   Game Name =  Rise of Merlin  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>686  Game Provider Name = EGT   Game Name =  Rolling Dice  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>687  Game Provider Name = Konami   Game Name =  Roman Tribune  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>688  Game Provider Name = PlaysonDirect   Game Name =  Rome: Caesar's Glory  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>690  Game Provider Name = NetEnt   Game Name =  Roulette touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/roulette_touch.jpg</t>
-  </si>
-  <si>
-    <t>692  Game Provider Name = EGT   Game Name =  Royal Gardens  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>697  Game Provider Name = PlaysonDirect   Game Name =  Sakura Dragon  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>710  Game Provider Name = PlaynGo   Game Name =  Secret of Dead  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>712  Game Provider Name = Konami   Game Name =  Secret of the Mermaid  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>713  Game Provider Name = NetEnt   Game Name =  Secrets of Atlantis  cod = 404   src = https://resources.vikwin.com/products/outcomebet/secrets_of_atlantis.jpg</t>
-  </si>
-  <si>
-    <t>714  Game Provider Name = NetEnt   Game Name =  Secrets of Christmas  cod = 404   src = https://resources.vikwin.com/products/outcomebet/secrets_of_christmas.jpg</t>
-  </si>
-  <si>
-    <t>715  Game Provider Name = Kajot   Game Name =  Secrets Of Egypt  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>716  Game Provider Name = NetEnt   Game Name =  Secrets of Horus  cod = 404   src = https://resources.vikwin.com/products/outcomebet/secrets_of_horus.jpg</t>
-  </si>
-  <si>
-    <t>720  Game Provider Name = PlaysonDirect   Game Name =  Sevens &amp; Fruits  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>721  Game Provider Name = PlaysonDirect   Game Name =  Sevens &amp; Fruits: 20 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>733  Game Provider Name = Kajot   Game Name =  Simply The Best 81  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>735  Game Provider Name = Booongo   Game Name =  Singles Day  cod = 404   src = https://resources.vikwin.com/products/outcomebet/web/SinglesDay.png</t>
-  </si>
-  <si>
-    <t>746  Game Provider Name = RelaxGaming   Game Name =  Snake Arena  cod = 404   src = https://resources.vikwin.com/products/outcomebet/snakearena_rg.jpg</t>
-  </si>
-  <si>
-    <t>750  Game Provider Name = NetEnt   Game Name =  South Park touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/south_park_touch.jpg</t>
-  </si>
-  <si>
-    <t>752  Game Provider Name = NetEnt   Game Name =  Sparks  cod = 404   src = https://resources.vikwin.com/products/outcomebet/sparks.jpg</t>
-  </si>
-  <si>
-    <t>753  Game Provider Name = NetEnt   Game Name =  Spellcast  cod = 404   src = https://resources.vikwin.com/products/outcomebet/spellcast.jpg.jpg</t>
-  </si>
-  <si>
-    <t>755  Game Provider Name = NetEnt   Game Name =  Spinata Grande  cod = 404   src = https://resources.vikwin.com/products/outcomebet/spinata_grande_touch.jpg</t>
-  </si>
-  <si>
-    <t>757  Game Provider Name = QuickSpin   Game Name =  Spinions Beach Party  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/qso_spinions.jpg</t>
-  </si>
-  <si>
-    <t>758  Game Provider Name = Greentube   Game Name =  Spinning Stars  cod = 404   src = https://resources.vikwin.com/products/outcomebet/spinningstars_gt_html.jpg</t>
-  </si>
-  <si>
-    <t>761  Game Provider Name = NetEnt   Game Name =  Starburst  cod = 404   src = https://resources.vikwin.com/products/outcomebet/starburst_touch.jpg</t>
-  </si>
-  <si>
-    <t>765  Game Provider Name = Kajot   Game Name =  Stars  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>767  Game Provider Name = NetEnt   Game Name =  Steam Tower touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/steam_tower_touch.jpg</t>
-  </si>
-  <si>
-    <t>768  Game Provider Name = NetEnt   Game Name =  Stickers  cod = 404   src = https://resources.vikwin.com/products/outcomebet/stickers.jpg</t>
-  </si>
-  <si>
-    <t>773  Game Provider Name = NetEnt   Game Name =  Subtopia touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/subtopia_touch.jpg</t>
-  </si>
-  <si>
-    <t>777  Game Provider Name = Aristocrat   Game Name =  Sun And Moon  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>782  Game Provider Name = PlaysonDirect   Game Name =  Super Burning Wins  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>783  Game Provider Name = PlaysonDirect   Game Name =  Super Burning Wins: Respin  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>786  Game Provider Name = EGT   Game Name =  Supreme Dice  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>797  Game Provider Name = QuickSpin   Game Name =  Tales of Doctor Dolittle  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/TalesofDoctorDolittle.png</t>
-  </si>
-  <si>
-    <t>798  Game Provider Name = NetEnt   Game Name =  Tales of Krakow  cod = 404   src = https://resources.vikwin.com/products/outcomebet/tales_of_krakow.jpg</t>
-  </si>
-  <si>
-    <t>801  Game Provider Name = RelaxGaming   Game Name =  Temple Tumble Megaways  cod = 404   src = https://resources.vikwin.com/products/outcomebet/templetumble_rg.jpg</t>
-  </si>
-  <si>
-    <t>812  Game Provider Name = NetEnt   Game Name =  the Invisible Man  cod = 404   src = https://resources.vikwin.com/products/outcomebet/the_invisible_man.jpg</t>
-  </si>
-  <si>
-    <t>816  Game Provider Name = PlaynGo   Game Name =  The Sword and The Grail  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>819  Game Provider Name = NetEnt   Game Name =  Theme Park  cod = 404   src = https://resources.vikwin.com/products/outcomebet/theme_park.jpg</t>
-  </si>
-  <si>
-    <t>823  Game Provider Name = NetEnt   Game Name =  ThrillSpin  cod = 404   src = https://resources.vikwin.com/products/outcomebet/thrillspin.jpg</t>
-  </si>
-  <si>
-    <t>825  Game Provider Name = PlaysonDirect   Game Name =  Thunder Reels  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>831  Game Provider Name = Aristocrat   Game Name =  Tiki Torch  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>839  Game Provider Name = NetEnt   Game Name =  Tornado touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/tornado_touch.jpg</t>
-  </si>
-  <si>
-    <t>842  Game Provider Name = NetEnt   Game Name =  Trolls  cod = 404   src = https://resources.vikwin.com/products/outcomebet/trolls.jpg</t>
-  </si>
-  <si>
-    <t>843  Game Provider Name = Kajot   Game Name =  Turbo 27  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>847  Game Provider Name = NetEnt   Game Name =  Twin Spin  cod = 404   src = https://resources.vikwin.com/products/outcomebet/twin_spin_touch.jpg</t>
-  </si>
-  <si>
-    <t>848  Game Provider Name = NetEnt   Game Name =  Twin Spin  cod = 404   src = https://resources.vikwin.com/products/outcomebet/twin_spin.jpg</t>
-  </si>
-  <si>
-    <t>865  Game Provider Name = NetEnt   Game Name =  Viking`s Treasure  cod = 404   src = https://resources.vikwin.com/products/outcomebet/vikings_treasure.jpg</t>
-  </si>
-  <si>
-    <t>867  Game Provider Name = Kajot   Game Name =  Vikings  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>870  Game Provider Name = QuickSpin   Game Name =  Volcano Riches  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/VolcanoRiches.png</t>
-  </si>
-  <si>
-    <t>871  Game Provider Name = NetEnt   Game Name =  Voodoo Vibes  cod = 404   src = https://resources.vikwin.com/products/outcomebet/voodoo_vibes.jpg</t>
-  </si>
-  <si>
-    <t>872  Game Provider Name = Kajot   Game Name =  Wanted  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>874  Game Provider Name = NetEnt   Game Name =  Warlords - Crystal of P.  cod = 404   src = https://resources.vikwin.com/products/outcomebet/warlords.jpg</t>
-  </si>
-  <si>
-    <t>875  Game Provider Name = Konami   Game Name =  Wealthy Monkey  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>885  Game Provider Name = PlaysonDirect   Game Name =  Wild Burning Wins: 5 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>886  Game Provider Name = RelaxGaming   Game Name =  Wild Chapo  cod = 404   src = https://resources.vikwin.com/products/outcomebet/wildchapo_rg.jpg</t>
-  </si>
-  <si>
-    <t>887  Game Provider Name = QuickSpin   Game Name =  Wild Chase  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/WildChase.png</t>
-  </si>
-  <si>
-    <t>897  Game Provider Name = NetEnt   Game Name =  Wild Turkey  cod = 404   src = https://resources.vikwin.com/products/outcomebet/wild_turkey.jpg</t>
-  </si>
-  <si>
-    <t>898  Game Provider Name = PlaysonDirect   Game Name =  Wild Warriors  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>899  Game Provider Name = NetEnt   Game Name =  Wild Water  cod = 404   src = https://resources.vikwin.com/products/outcomebet/wild_water_html.jpg</t>
-  </si>
-  <si>
-    <t>902  Game Provider Name = NetEnt   Game Name =  Wild Wild West  cod = 404   src = https://resources.vikwin.com/products/outcomebet/wild_wild_west.jpg</t>
-  </si>
-  <si>
-    <t>903  Game Provider Name = NetEnt   Game Name =  Wild Witches  cod = 404   src = https://resources.vikwin.com/products/outcomebet/wild_witches.jpg</t>
-  </si>
-  <si>
-    <t>907  Game Provider Name = NetEnt   Game Name =  Wish Master  cod = 404   src = https://resources.vikwin.com/products/outcomebet/wishmaster.jpg</t>
-  </si>
-  <si>
-    <t>913  Game Provider Name = Konami   Game Name =  Wonder Rose  cod = 403   src = https://resources.vikwin.com/products/</t>
-  </si>
-  <si>
-    <t>918  Game Provider Name = WMG   Game Name =  Yabba Dabba Dosh  cod = 403   src = https://resources.vikwin.com/products/</t>
+    <t>59  Game Provider Name = Greentube   Game Name =  Bars and Sevens  cod = 404   src = https://resources.vikwin.com/products/outcomebet/barsandsevens_gt_html.jpg</t>
+  </si>
+  <si>
+    <t>80  Game Provider Name = Aristocrat   Game Name =  Big Red  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>84  Game Provider Name = Wazdan   Game Name =  Black Hawk Deluxe  cod = 404   src = https://resources.vikwin.com/products/wazdan\web\bhd_wzdn.jpg</t>
+  </si>
+  <si>
+    <t>86  Game Provider Name = NetEnt   Game Name =  Black Jack 3 hands  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blackjack_html.jpg</t>
+  </si>
+  <si>
+    <t>87  Game Provider Name = NetEnt   Game Name =  Blackjack Classic touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blackjack_classic_touch.jpg</t>
+  </si>
+  <si>
+    <t>88  Game Provider Name = NetEnt   Game Name =  Blackjack Single Deck t.  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blackjack_single_deck_touch.jpg</t>
+  </si>
+  <si>
+    <t>89  Game Provider Name = NetEnt   Game Name =  Blackjack touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blackjack_touch.jpg</t>
+  </si>
+  <si>
+    <t>92  Game Provider Name = NetEnt   Game Name =  Blood Suckers  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blood_suckers_touch.jpg</t>
+  </si>
+  <si>
+    <t>93  Game Provider Name = NetEnt   Game Name =  Blood Suckers 2  cod = 404   src = https://resources.vikwin.com/products/outcomebet/blood_suckers_2.jpg</t>
+  </si>
+  <si>
+    <t>97  Game Provider Name = PlaynGo   Game Name =  Book of Dead  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>99  Game Provider Name = PlaysonDirect   Game Name =  Book of Gold: Classic  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>100  Game Provider Name = PlaysonDirect   Game Name =  Book of Gold: Double Chance  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>101  Game Provider Name = PlaysonDirect   Game Name =  Book of Gold: Symbol Choice  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>104  Game Provider Name = Greentube   Game Name =  Book of Maya  cod = 404   src = https://resources.vikwin.com/products/outcomebet/bookofmaya_gt_html.jpg</t>
+  </si>
+  <si>
+    <t>108  Game Provider Name = Greentube   Game Name =  Book of Ra Classic  cod = 404   src = https://resources.vikwin.com/products/outcomebet/bookofraclassic_gt_html.jpg</t>
+  </si>
+  <si>
+    <t>116  Game Provider Name = Aristocrat   Game Name =  Buffalo  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>118  Game Provider Name = Greentube   Game Name =  Bugs'n'Bees  cod = 404   src = https://resources.vikwin.com/products/outcomebet/bugsnbees_gt_html.jpg</t>
+  </si>
+  <si>
+    <t>119  Game Provider Name = Greentube   Game Name =  Bullion Bars  cod = 404   src = https://resources.vikwin.com/products/outcomebet/bullionbars_gt_html.jpg</t>
+  </si>
+  <si>
+    <t>124  Game Provider Name = PlaysonDirect   Game Name =  Burning Wins  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>130  Game Provider Name = Greentube   Game Name =  Caribbean Holidays  cod = 404   src = https://resources.vikwin.com/products/outcomebet/caribbeanholidays_gt_html.jpg</t>
+  </si>
+  <si>
+    <t>132  Game Provider Name = WMG   Game Name =  Cash Bunny  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>141  Game Provider Name = Konami   Game Name =  China Mystery  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>145  Game Provider Name = PlaysonDirect   Game Name =  Clover Riches  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>149  Game Provider Name = QuickSpin   Game Name =  Colossus  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/qso_colossus.jpg</t>
+  </si>
+  <si>
+    <t>153  Game Provider Name = Microgaming   Game Name =  Cool Wolf  cod = 404   src = https://resources.vikwin.com/products/microgaming/web/coolwolf_mg_flash_html.jpg</t>
+  </si>
+  <si>
+    <t>155  Game Provider Name = EGT   Game Name =  Coral Island  cod = 404   src = https://resources.vikwin.com/products/egt/web/CoralIsland.png</t>
+  </si>
+  <si>
+    <t>163  Game Provider Name = NetEnt   Game Name =  Dazzle Me  cod = 404   src = https://resources.vikwin.com/products/outcomebet/dazzle_me.jpg</t>
+  </si>
+  <si>
+    <t>165  Game Provider Name = NetEnt   Game Name =  Dead or Alive  cod = 404   src = https://resources.vikwin.com/products/outcomebet/dead_or_alive_html.jpg</t>
+  </si>
+  <si>
+    <t>169  Game Provider Name = Konami   Game Name =  Destiny of Athena  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>171  Game Provider Name = NetEnt   Game Name =  Diamond Dogs  cod = 404   src = https://resources.vikwin.com/products/outcomebet/diamond_dogs.jpg</t>
+  </si>
+  <si>
+    <t>176  Game Provider Name = EGT   Game Name =  Dice &amp; Roll  cod = 404   src = https://resources.vikwin.com/products/egt/web/DiceandRoll.png</t>
+  </si>
+  <si>
+    <t>178  Game Provider Name = EGT   Game Name =  Dice Of Ra  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>180  Game Provider Name = QuickSpin   Game Name =  Divine Dreams  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/DivineDreams.png</t>
+  </si>
+  <si>
+    <t>182  Game Provider Name = Aristocrat   Game Name =  Dolphin Treasure  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>186  Game Provider Name = Aristocrat   Game Name =  Double Happiness  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>189  Game Provider Name = NetEnt   Game Name =  Dracula touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/dracula_touch.jpg</t>
+  </si>
+  <si>
+    <t>197  Game Provider Name = Microgaming   Game Name =  Dragonz  cod = 404   src = https://resources.vikwin.com/products/microgaming/web/mobbet/dragonz_mg_html.jpg</t>
+  </si>
+  <si>
+    <t>199  Game Provider Name = NetEnt   Game Name =  Drive Multiplier Mayhem  cod = 404   src = https://resources.vikwin.com/products/outcomebet/drive_multiplier_mayhem.jpg</t>
+  </si>
+  <si>
+    <t>204  Game Provider Name = PlaynGo   Game Name =  Easter Eggs  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>206  Game Provider Name = NetEnt   Game Name =  Elements  cod = 404   src = https://resources.vikwin.com/products/outcomebet/elements_html.jpg</t>
+  </si>
+  <si>
+    <t>211  Game Provider Name = NetEnt   Game Name =  Excalibur  cod = 404   src = https://resources.vikwin.com/products/outcomebet/excalibur.jpg</t>
+  </si>
+  <si>
+    <t>216  Game Provider Name = Greentube   Game Name =  Fairy Queen  cod = 404   src = https://resources.vikwin.com/products/outcomebet/fairyqueen_gt_html.jpg</t>
+  </si>
+  <si>
+    <t>223  Game Provider Name = PlaynGo   Game Name =  Fire Joker  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>224  Game Provider Name = Aristocrat   Game Name =  Fire Light  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>229  Game Provider Name = NetEnt   Game Name =  Fisticuffs  cod = 404   src = https://resources.vikwin.com/products/outcomebet/fisticuffs.jpg</t>
+  </si>
+  <si>
+    <t>231  Game Provider Name = Aristocrat   Game Name =  Flame Of Olympus  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>233  Game Provider Name = EGT   Game Name =  Flaming Dice  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>236  Game Provider Name = NetEnt   Game Name =  Flowers  cod = 404   src = https://resources.vikwin.com/products/outcomebet/flowers.jpg</t>
+  </si>
+  <si>
+    <t>237  Game Provider Name = NetEnt   Game Name =  Flowers Christmas Edition  cod = 404   src = https://resources.vikwin.com/products/outcomebet/flowers_christmas.jpg</t>
+  </si>
+  <si>
+    <t>238  Game Provider Name = NetEnt   Game Name =  Flowers touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/flowers_touch.jpg</t>
+  </si>
+  <si>
+    <t>239  Game Provider Name = NetEnt   Game Name =  Football: Champions Cup  cod = 404   src = https://resources.vikwin.com/products/outcomebet/football.jpg</t>
+  </si>
+  <si>
+    <t>245  Game Provider Name = Konami   Game Name =  Fortune Stacks  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>246  Game Provider Name = NetEnt   Game Name =  FortuneTeller  cod = 404   src = https://resources.vikwin.com/products/outcomebet/fortuneteller.jpg</t>
+  </si>
+  <si>
+    <t>248  Game Provider Name = NetEnt   Game Name =  Frankenstein touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/frankenstein_touch.jpg</t>
+  </si>
+  <si>
+    <t>249  Game Provider Name = NetEnt   Game Name =  French Roulette  cod = 404   src = https://resources.vikwin.com/products/outcomebet/french_roulette.jpg</t>
+  </si>
+  <si>
+    <t>256  Game Provider Name = NetEnt   Game Name =  Fruit Shop  cod = 404   src = https://resources.vikwin.com/products/outcomebet/fruitshop_touch.jpg</t>
+  </si>
+  <si>
+    <t>258  Game Provider Name = PlaysonDirect   Game Name =  Fruit Supreme  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>259  Game Provider Name = PlaysonDirect   Game Name =  Fruit Xtreme  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>260  Game Provider Name = PlaysonDirect   Game Name =  Fruits &amp; Clovers: 20 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>261  Game Provider Name = PlaysonDirect   Game Name =  Fruits &amp; Jokers: 100 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>262  Game Provider Name = PlaysonDirect   Game Name =  Fruits &amp; Jokers: 20 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>263  Game Provider Name = PlaysonDirect   Game Name =  Fruits &amp; Jokers: 40 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>265  Game Provider Name = PlaysonDirect   Game Name =  Fruits 'n' Stars  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>266  Game Provider Name = PlaysonDirect   Game Name =  Fruits 'n' Stars Holiday Edition  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>267  Game Provider Name = PlaysonDirect   Game Name =  Fruits of the Nile  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>268  Game Provider Name = NetEnt   Game Name =  Fruitshop Christmas Edition  cod = 404   src = https://resources.vikwin.com/products/outcomebet/fruitshop_christmas.jpg</t>
+  </si>
+  <si>
+    <t>270  Game Provider Name = Greentube   Game Name =  Frutilicious  cod = 404   src = https://resources.vikwin.com/products/outcomebet/fruitilicious_gt_html.jpg</t>
+  </si>
+  <si>
+    <t>279  Game Provider Name = Aristocrat   Game Name =  Geisha  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>282  Game Provider Name = NetEnt   Game Name =  Ghost Pirates  cod = 404   src = https://resources.vikwin.com/products/outcomebet/ghost_pirates.jpg</t>
+  </si>
+  <si>
+    <t>289  Game Provider Name = PlaysonDirect   Game Name =  God of Wild Sea  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>300  Game Provider Name = Konami   Game Name =  Golden Wolves  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>301  Game Provider Name = QuickSpin   Game Name =  Goldilocks &amp; Wild Bears  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/qso_goldilocks2.jpg</t>
+  </si>
+  <si>
+    <t>302  Game Provider Name = NetEnt   Game Name =  Gonzos Quest  cod = 404   src = https://resources.vikwin.com/products/outcomebet/gonzos_quest_touch.jpg</t>
+  </si>
+  <si>
+    <t>311  Game Provider Name = Greentube   Game Name =  Gryphon`s Gold Deluxe  cod = 404   src = https://resources.vikwin.com/products/outcomebet/gryphonsgolddeluxe_gt_html.jpg</t>
+  </si>
+  <si>
+    <t>313  Game Provider Name = NetEnt   Game Name =  Guns 'N' Roses  cod = 404   src = https://resources.vikwin.com/products/outcomebet/guns_and_roses.jpg</t>
+  </si>
+  <si>
+    <t>314  Game Provider Name = Konami   Game Name =  Gypsy Fire  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>317  Game Provider Name = PlaynGo   Game Name =  Happy Halloween  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>320  Game Provider Name = WMG   Game Name =  Haunted House  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>321  Game Provider Name = WMG   Game Name =  Haunted House Rest In Paradise  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>322  Game Provider Name = Konami   Game Name =  Heart Of Romance  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>332  Game Provider Name = NetEnt   Game Name =  Hook's Heroes  cod = 404   src = https://resources.vikwin.com/products/outcomebet/hooks_heroes.jpg</t>
+  </si>
+  <si>
+    <t>339  Game Provider Name = NetEnt   Game Name =  Hot City  cod = 404   src = https://resources.vikwin.com/products/outcomebet/hot_city.jpg</t>
+  </si>
+  <si>
+    <t>357  Game Provider Name = Kajot   Game Name =  Ice Bar 27  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>358  Game Provider Name = QuickSpin   Game Name =  Illuminous  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/qso_illuminous.jpg</t>
+  </si>
+  <si>
+    <t>360  Game Provider Name = PlaysonDirect   Game Name =  Imperial Fruits: 100 Lines  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>361  Game Provider Name = PlaysonDirect   Game Name =  Imperial Fruits: 40 Lines  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>362  Game Provider Name = PlaysonDirect   Game Name =  Imperial Fruits: 5 Lines  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>363  Game Provider Name = Konami   Game Name =  Imperial Wealth  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>368  Game Provider Name = PlaynGo   Game Name =  Inferno Star  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>369  Game Provider Name = RelaxGaming   Game Name =  Iron Bank  cod = 404   src = https://resources.vikwin.com/products/outcomebet/ironbank_rg.jpg</t>
+  </si>
+  <si>
+    <t>374  Game Provider Name = NetEnt   Game Name =  Jack &amp; Beanstalk  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jack_and_the_beanstalk_touch.jpg</t>
+  </si>
+  <si>
+    <t>375  Game Provider Name = NetEnt   Game Name =  Jack Hammer  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jack_hammer_touch.jpg</t>
+  </si>
+  <si>
+    <t>376  Game Provider Name = NetEnt   Game Name =  Jack Hammer 2  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jack_hammer_2_touch.jpg</t>
+  </si>
+  <si>
+    <t>379  Game Provider Name = NetEnt   Game Name =  Jacks or Better  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jacks_or_better.jpg</t>
+  </si>
+  <si>
+    <t>380  Game Provider Name = Aristocrat   Game Name =  Jaguar Mist  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>385  Game Provider Name = NetEnt   Game Name =  Jimi Hendrix  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jimi_hendrix.jpg</t>
+  </si>
+  <si>
+    <t>390  Game Provider Name = PlaysonDirect   Game Name =  Juice and Fruits  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>395  Game Provider Name = NetEnt   Game Name =  Jungle Spirit  cod = 404   src = https://resources.vikwin.com/products/outcomebet/jungle_spirit.jpg</t>
+  </si>
+  <si>
+    <t>403  Game Provider Name = Greentube   Game Name =  Keno plus 2Balls  cod = 404   src = https://resources.vikwin.com/products/outcomebet/kenoplustwoball_gt_html.jpg</t>
+  </si>
+  <si>
+    <t>404  Game Provider Name = EGT   Game Name =  Keno Universe  cod = 404   src = https://resources.vikwin.com/products/outcomebet/keno_universe_html.jpg</t>
+  </si>
+  <si>
+    <t>411  Game Provider Name = NetEnt   Game Name =  Koi Princess  cod = 404   src = https://resources.vikwin.com/products/outcomebet/koi_princess.jpg</t>
+  </si>
+  <si>
+    <t>415  Game Provider Name = PlaynGo   Game Name =  Legacy of Dead  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>416  Game Provider Name = PlaysonDirect   Game Name =  Legend Of Cleopatra  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>421  Game Provider Name = NetEnt   Game Name =  Lights  cod = 404   src = https://resources.vikwin.com/products/outcomebet/lights_touch.jpg</t>
+  </si>
+  <si>
+    <t>427  Game Provider Name = Konami   Game Name =  Lotus Land  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>432  Game Provider Name = NetEnt   Game Name =  Lucky Angler  cod = 404   src = https://resources.vikwin.com/products/outcomebet/lucky_angler_touch.jpg</t>
+  </si>
+  <si>
+    <t>450  Game Provider Name = PlaysonDirect   Game Name =  Lucky Staxx: 40 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>468  Game Provider Name = NetEnt   Game Name =  Magic Portals  cod = 404   src = https://resources.vikwin.com/products/outcomebet/magic_portals_touch.jpg</t>
+  </si>
+  <si>
+    <t>470  Game Provider Name = Amatic   Game Name =  Magic Scatter  cod = 404   src = https://resources.vikwin.com/products/amatic\web\MagicScatter.jpg</t>
+  </si>
+  <si>
+    <t>477  Game Provider Name = NetEnt   Game Name =  Master of Mystery  cod = 404   src = https://resources.vikwin.com/products/outcomebet/master_of_mystery.jpg</t>
+  </si>
+  <si>
+    <t>481  Game Provider Name = PlaysonDirect   Game Name =  Mega Burning Wins: 27 ways  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>492  Game Provider Name = RelaxGaming   Game Name =  Money Train 2  cod = 404   src = https://resources.vikwin.com/products/outcomebet/moneytrain2_rg.jpg</t>
+  </si>
+  <si>
+    <t>496  Game Provider Name = Aristocrat   Game Name =  Moon Festival  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>497  Game Provider Name = EGT   Game Name =  More Dice &amp; Roll  cod = 404   src = https://resources.vikwin.com/products/egt/web/MoreDiceandRoll.png</t>
+  </si>
+  <si>
+    <t>502  Game Provider Name = QuickSpin   Game Name =  Mountain King  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/MountainKing.png</t>
+  </si>
+  <si>
+    <t>503  Game Provider Name = Kajot   Game Name =  Multi Vegas 81  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>506  Game Provider Name = NetEnt   Game Name =  Mystery at the Mansion  cod = 404   src = https://resources.vikwin.com/products/outcomebet/mystery_at_the_mansion.jpg</t>
+  </si>
+  <si>
+    <t>510  Game Provider Name = NetEnt   Game Name =  Mythic Maiden  cod = 404   src = https://resources.vikwin.com/products/outcomebet/mythic_maiden_touch.jpg</t>
+  </si>
+  <si>
+    <t>511  Game Provider Name = EGT   Game Name =  Neon Dice  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>512  Game Provider Name = Kajot   Game Name =  Neon Fruits  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>513  Game Provider Name = NetEnt   Game Name =  Neon Staxx  cod = 404   src = https://resources.vikwin.com/products/outcomebet/neon_staxx.jpg</t>
+  </si>
+  <si>
+    <t>515  Game Provider Name = Kajot   Game Name =  Nine Stars  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>520  Game Provider Name = NetEnt   Game Name =  Nrvna touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/nrvna_touch.jpg</t>
+  </si>
+  <si>
+    <t>527  Game Provider Name = Microgaming   Game Name =  One of Egypt  cod = 404   src = https://resources.vikwin.com/products/outcomebet/throneofegypt_mg_flash.jpg</t>
+  </si>
+  <si>
+    <t>530  Game Provider Name = NetEnt   Game Name =  Pacific Attack!  cod = 404   src = https://resources.vikwin.com/products/outcomebet/pacific_attack.jpg</t>
+  </si>
+  <si>
+    <t>532  Game Provider Name = NetEnt   Game Name =  Pandora's Box  cod = 404   src = https://resources.vikwin.com/products/outcomebet/pandoras_box.jpg</t>
+  </si>
+  <si>
+    <t>535  Game Provider Name = Booongo   Game Name =  Patrick's Pub  cod = 404   src = https://resources.vikwin.com/products/outcomebet/web/PatricksPub.png</t>
+  </si>
+  <si>
+    <t>536  Game Provider Name = Aristocrat   Game Name =  Pelican Pete  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>542  Game Provider Name = PlaysonDirect   Game Name =  Phoenix Fire  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>545  Game Provider Name = NetEnt   Game Name =  Piggy Riches  cod = 404   src = https://resources.vikwin.com/products/outcomebet/piggy_riches_touch.jpg</t>
+  </si>
+  <si>
+    <t>552  Game Provider Name = Kajot   Game Name =  Poly Diamonds  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>554  Game Provider Name = Kajot   Game Name =  Puppet Show  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>555  Game Provider Name = NetEnt   Game Name =  Pyramid  cod = 404   src = https://resources.vikwin.com/products/outcomebet/pyramid_new.jpg</t>
+  </si>
+  <si>
+    <t>568  Game Provider Name = PlaysonDirect   Game Name =  Red Chilli Wins  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>575  Game Provider Name = NetEnt   Game Name =  Reel Rush  cod = 404   src = https://resources.vikwin.com/products/outcomebet/reel_rush_html.jpg</t>
+  </si>
+  <si>
+    <t>576  Game Provider Name = NetEnt   Game Name =  Reel Steal  cod = 404   src = https://resources.vikwin.com/products/outcomebet/reel_steal.jpg</t>
+  </si>
+  <si>
+    <t>581  Game Provider Name = PlaynGo   Game Name =  Riches of RA  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>582  Game Provider Name = Kajot   Game Name =  Ring Of Fire Xl  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>583  Game Provider Name = PlaysonDirect   Game Name =  Rise Of Egypt  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>584  Game Provider Name = PlaynGo   Game Name =  Rise of Merlin  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>592  Game Provider Name = EGT   Game Name =  Rolling Dice  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>593  Game Provider Name = Konami   Game Name =  Roman Tribune  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>594  Game Provider Name = PlaysonDirect   Game Name =  Rome: Caesar's Glory  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>596  Game Provider Name = NetEnt   Game Name =  Roulette touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/roulette_touch.jpg</t>
+  </si>
+  <si>
+    <t>598  Game Provider Name = EGT   Game Name =  Royal Gardens  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>602  Game Provider Name = PlaysonDirect   Game Name =  Sakura Dragon  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>614  Game Provider Name = PlaynGo   Game Name =  Secret of Dead  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>616  Game Provider Name = Konami   Game Name =  Secret of the Mermaid  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>617  Game Provider Name = NetEnt   Game Name =  Secrets of Atlantis  cod = 404   src = https://resources.vikwin.com/products/outcomebet/secrets_of_atlantis.jpg</t>
+  </si>
+  <si>
+    <t>618  Game Provider Name = NetEnt   Game Name =  Secrets of Christmas  cod = 404   src = https://resources.vikwin.com/products/outcomebet/secrets_of_christmas.jpg</t>
+  </si>
+  <si>
+    <t>619  Game Provider Name = Kajot   Game Name =  Secrets Of Egypt  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>620  Game Provider Name = NetEnt   Game Name =  Secrets of Horus  cod = 404   src = https://resources.vikwin.com/products/outcomebet/secrets_of_horus.jpg</t>
+  </si>
+  <si>
+    <t>624  Game Provider Name = PlaysonDirect   Game Name =  Sevens &amp; Fruits  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>625  Game Provider Name = PlaysonDirect   Game Name =  Sevens &amp; Fruits: 20 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>635  Game Provider Name = Kajot   Game Name =  Simply The Best 81  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>637  Game Provider Name = Booongo   Game Name =  Singles Day  cod = 404   src = https://resources.vikwin.com/products/outcomebet/web/SinglesDay.png</t>
+  </si>
+  <si>
+    <t>648  Game Provider Name = RelaxGaming   Game Name =  Snake Arena  cod = 404   src = https://resources.vikwin.com/products/outcomebet/snakearena_rg.jpg</t>
+  </si>
+  <si>
+    <t>652  Game Provider Name = NetEnt   Game Name =  South Park touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/south_park_touch.jpg</t>
+  </si>
+  <si>
+    <t>654  Game Provider Name = NetEnt   Game Name =  Sparks  cod = 404   src = https://resources.vikwin.com/products/outcomebet/sparks.jpg</t>
+  </si>
+  <si>
+    <t>655  Game Provider Name = NetEnt   Game Name =  Spellcast  cod = 404   src = https://resources.vikwin.com/products/outcomebet/spellcast.jpg.jpg</t>
+  </si>
+  <si>
+    <t>656  Game Provider Name = NetEnt   Game Name =  Spinata Grande  cod = 404   src = https://resources.vikwin.com/products/outcomebet/spinata_grande_touch.jpg</t>
+  </si>
+  <si>
+    <t>657  Game Provider Name = QuickSpin   Game Name =  Spinions Beach Party  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/qso_spinions.jpg</t>
+  </si>
+  <si>
+    <t>658  Game Provider Name = Greentube   Game Name =  Spinning Stars  cod = 404   src = https://resources.vikwin.com/products/outcomebet/spinningstars_gt_html.jpg</t>
+  </si>
+  <si>
+    <t>661  Game Provider Name = NetEnt   Game Name =  Starburst  cod = 404   src = https://resources.vikwin.com/products/outcomebet/starburst_touch.jpg</t>
+  </si>
+  <si>
+    <t>663  Game Provider Name = Kajot   Game Name =  Stars  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>665  Game Provider Name = NetEnt   Game Name =  Steam Tower touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/steam_tower_touch.jpg</t>
+  </si>
+  <si>
+    <t>666  Game Provider Name = NetEnt   Game Name =  Stickers  cod = 404   src = https://resources.vikwin.com/products/outcomebet/stickers.jpg</t>
+  </si>
+  <si>
+    <t>671  Game Provider Name = NetEnt   Game Name =  Subtopia touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/subtopia_touch.jpg</t>
+  </si>
+  <si>
+    <t>675  Game Provider Name = Aristocrat   Game Name =  Sun And Moon  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>679  Game Provider Name = PlaysonDirect   Game Name =  Super Burning Wins  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>680  Game Provider Name = PlaysonDirect   Game Name =  Super Burning Wins: Respin  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>683  Game Provider Name = EGT   Game Name =  Supreme Dice  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>693  Game Provider Name = QuickSpin   Game Name =  Tales of Doctor Dolittle  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/TalesofDoctorDolittle.png</t>
+  </si>
+  <si>
+    <t>694  Game Provider Name = NetEnt   Game Name =  Tales of Krakow  cod = 404   src = https://resources.vikwin.com/products/outcomebet/tales_of_krakow.jpg</t>
+  </si>
+  <si>
+    <t>697  Game Provider Name = RelaxGaming   Game Name =  Temple Tumble Megaways  cod = 404   src = https://resources.vikwin.com/products/outcomebet/templetumble_rg.jpg</t>
+  </si>
+  <si>
+    <t>708  Game Provider Name = NetEnt   Game Name =  the Invisible Man  cod = 404   src = https://resources.vikwin.com/products/outcomebet/the_invisible_man.jpg</t>
+  </si>
+  <si>
+    <t>712  Game Provider Name = PlaynGo   Game Name =  The Sword and The Grail  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>715  Game Provider Name = NetEnt   Game Name =  Theme Park  cod = 404   src = https://resources.vikwin.com/products/outcomebet/theme_park.jpg</t>
+  </si>
+  <si>
+    <t>719  Game Provider Name = NetEnt   Game Name =  ThrillSpin  cod = 404   src = https://resources.vikwin.com/products/outcomebet/thrillspin.jpg</t>
+  </si>
+  <si>
+    <t>721  Game Provider Name = PlaysonDirect   Game Name =  Thunder Reels  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>725  Game Provider Name = Aristocrat   Game Name =  Tiki Torch  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>730  Game Provider Name = NetEnt   Game Name =  Tornado touch  cod = 404   src = https://resources.vikwin.com/products/outcomebet/tornado_touch.jpg</t>
+  </si>
+  <si>
+    <t>733  Game Provider Name = NetEnt   Game Name =  Trolls  cod = 404   src = https://resources.vikwin.com/products/outcomebet/trolls.jpg</t>
+  </si>
+  <si>
+    <t>734  Game Provider Name = Kajot   Game Name =  Turbo 27  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>738  Game Provider Name = NetEnt   Game Name =  Twin Spin  cod = 404   src = https://resources.vikwin.com/products/outcomebet/twin_spin_touch.jpg</t>
+  </si>
+  <si>
+    <t>753  Game Provider Name = NetEnt   Game Name =  Viking`s Treasure  cod = 404   src = https://resources.vikwin.com/products/outcomebet/vikings_treasure.jpg</t>
+  </si>
+  <si>
+    <t>754  Game Provider Name = Kajot   Game Name =  Vikings  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>757  Game Provider Name = QuickSpin   Game Name =  Volcano Riches  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/VolcanoRiches.png</t>
+  </si>
+  <si>
+    <t>758  Game Provider Name = NetEnt   Game Name =  Voodoo Vibes  cod = 404   src = https://resources.vikwin.com/products/outcomebet/voodoo_vibes.jpg</t>
+  </si>
+  <si>
+    <t>759  Game Provider Name = Kajot   Game Name =  Wanted  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>761  Game Provider Name = NetEnt   Game Name =  Warlords - Crystal of P.  cod = 404   src = https://resources.vikwin.com/products/outcomebet/warlords.jpg</t>
+  </si>
+  <si>
+    <t>762  Game Provider Name = Konami   Game Name =  Wealthy Monkey  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>772  Game Provider Name = PlaysonDirect   Game Name =  Wild Burning Wins: 5 lines  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>773  Game Provider Name = RelaxGaming   Game Name =  Wild Chapo  cod = 404   src = https://resources.vikwin.com/products/outcomebet/wildchapo_rg.jpg</t>
+  </si>
+  <si>
+    <t>774  Game Provider Name = QuickSpin   Game Name =  Wild Chase  cod = 404   src = https://resources.vikwin.com/products/quickspin/web/WildChase.png</t>
+  </si>
+  <si>
+    <t>784  Game Provider Name = NetEnt   Game Name =  Wild Turkey  cod = 404   src = https://resources.vikwin.com/products/outcomebet/wild_turkey.jpg</t>
+  </si>
+  <si>
+    <t>785  Game Provider Name = PlaysonDirect   Game Name =  Wild Warriors  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>786  Game Provider Name = NetEnt   Game Name =  Wild Water  cod = 404   src = https://resources.vikwin.com/products/outcomebet/wild_water_html.jpg</t>
+  </si>
+  <si>
+    <t>788  Game Provider Name = NetEnt   Game Name =  Wild Wild West  cod = 404   src = https://resources.vikwin.com/products/outcomebet/wild_wild_west.jpg</t>
+  </si>
+  <si>
+    <t>789  Game Provider Name = NetEnt   Game Name =  Wild Witches  cod = 404   src = https://resources.vikwin.com/products/outcomebet/wild_witches.jpg</t>
+  </si>
+  <si>
+    <t>793  Game Provider Name = NetEnt   Game Name =  Wish Master  cod = 404   src = https://resources.vikwin.com/products/outcomebet/wishmaster.jpg</t>
+  </si>
+  <si>
+    <t>798  Game Provider Name = Konami   Game Name =  Wonder Rose  cod = 403   src = https://resources.vikwin.com/products/</t>
+  </si>
+  <si>
+    <t>803  Game Provider Name = WMG   Game Name =  Yabba Dabba Dosh  cod = 403   src = https://resources.vikwin.com/products/</t>
   </si>
 </sst>
 </file>
@@ -758,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A234"/>
+  <dimension ref="A1:A208"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1807,136 +1729,6 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>233</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
